--- a/benchmark/benchmark_journal_performance.xlsx
+++ b/benchmark/benchmark_journal_performance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>序号</t>
   </si>
@@ -127,9 +127,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1.3</t>
-  </si>
-  <si>
     <t>2.66</t>
   </si>
   <si>
@@ -160,6 +157,14 @@
   </si>
   <si>
     <t>2c1g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.13</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -167,7 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +190,23 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -211,7 +233,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -222,6 +244,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -528,12 +562,12 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="4" width="9" style="1"/>
     <col min="5" max="5" width="11.625" customWidth="1"/>
     <col min="6" max="6" width="32.5" style="1" customWidth="1"/>
@@ -544,7 +578,7 @@
     <col min="11" max="13" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
@@ -558,10 +592,10 @@
         <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>27</v>
@@ -570,39 +604,42 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -620,7 +657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -638,7 +675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -656,7 +693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -674,7 +711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -692,7 +729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -710,7 +747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -728,7 +765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -736,7 +773,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>21</v>
@@ -747,7 +784,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -755,7 +792,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>22</v>
@@ -764,24 +801,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="1">
-        <v>9.1300000000000008</v>
+      <c r="D12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -789,7 +826,7 @@
         <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>19</v>
@@ -799,7 +836,7 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -807,17 +844,17 @@
         <v>24</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -835,7 +872,7 @@
       </c>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -846,10 +883,10 @@
         <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
@@ -882,5 +919,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/benchmark/benchmark_journal_performance.xlsx
+++ b/benchmark/benchmark_journal_performance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
   <si>
     <t>序号</t>
   </si>
@@ -165,6 +165,34 @@
   </si>
   <si>
     <t>9.13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1c3g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1c3g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2c3g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2c3g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1c4g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1c4g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2c4g</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -233,7 +261,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -257,6 +285,15 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,91 +596,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="32.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="1" customWidth="1"/>
-    <col min="11" max="13" width="9" style="1"/>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.25" style="1" customWidth="1"/>
+    <col min="15" max="19" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="9"/>
+    </row>
+    <row r="2" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="K2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="5"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -652,16 +744,15 @@
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I3"/>
-      <c r="J3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -670,16 +761,15 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I4"/>
-      <c r="J4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -688,16 +778,15 @@
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I5"/>
-      <c r="J5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -706,16 +795,15 @@
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I6"/>
-      <c r="J6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -724,16 +812,15 @@
       <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I7"/>
-      <c r="J7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -742,16 +829,15 @@
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I8"/>
-      <c r="J8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -760,16 +846,15 @@
       <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I9"/>
-      <c r="J9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -778,17 +863,17 @@
       <c r="F10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -797,15 +882,15 @@
       <c r="F11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -814,15 +899,19 @@
       <c r="F12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="N12" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -831,16 +920,16 @@
       <c r="F13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -849,16 +938,16 @@
       <c r="F14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -867,16 +956,16 @@
       <c r="F15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -885,15 +974,15 @@
       <c r="F16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -902,18 +991,18 @@
       <c r="F17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D20" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D28" s="2"/>
     </row>
   </sheetData>

--- a/benchmark/benchmark_journal_performance.xlsx
+++ b/benchmark/benchmark_journal_performance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="78">
   <si>
     <t>1c1g</t>
   </si>
@@ -91,10 +91,16 @@
     <t>135.71</t>
   </si>
   <si>
+    <t>16.68</t>
+  </si>
+  <si>
     <t>272.48</t>
   </si>
   <si>
-    <t>335.56</t>
+    <t>315.56</t>
+  </si>
+  <si>
+    <t>326.02</t>
   </si>
   <si>
     <t>TestDFSIO读_Average IO rate(mb/sec)</t>
@@ -112,10 +118,16 @@
     <t>137.85</t>
   </si>
   <si>
+    <t>17.63</t>
+  </si>
+  <si>
     <t>273.07</t>
   </si>
   <si>
-    <t>346.37</t>
+    <t>316.37</t>
+  </si>
+  <si>
+    <t>329.69</t>
   </si>
   <si>
     <t>TestDFSIO写_Throughput(mb/sec)</t>
@@ -133,10 +145,16 @@
     <t>12.41</t>
   </si>
   <si>
+    <t>4.65</t>
+  </si>
+  <si>
     <t>16.43</t>
   </si>
   <si>
-    <t>20.23</t>
+    <t>18.23</t>
+  </si>
+  <si>
+    <t>19.01</t>
   </si>
   <si>
     <t>TestDFSIO写_Average IO rate(mb/sec)</t>
@@ -154,10 +172,16 @@
     <t>12.42</t>
   </si>
   <si>
+    <t>5.94</t>
+  </si>
+  <si>
     <t>16.45</t>
   </si>
   <si>
-    <t>20.43</t>
+    <t>18.43</t>
+  </si>
+  <si>
+    <t>19.14</t>
   </si>
   <si>
     <t>TeraSort计算性能测试_100mb 文件排序耗时(s)</t>
@@ -175,12 +199,18 @@
     <t>60s</t>
   </si>
   <si>
+    <t>2min26s</t>
+  </si>
+  <si>
     <t>55s</t>
   </si>
   <si>
     <t>43s</t>
   </si>
   <si>
+    <t>44s</t>
+  </si>
+  <si>
     <t>nnbench</t>
   </si>
   <si>
@@ -202,7 +232,13 @@
     <t>48.2s</t>
   </si>
   <si>
+    <t>162s</t>
+  </si>
+  <si>
     <t>35s</t>
+  </si>
+  <si>
+    <t>34s</t>
   </si>
   <si>
     <t>SliveTest</t>
@@ -219,10 +255,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -249,7 +285,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,37 +382,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,14 +397,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -325,22 +406,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,37 +420,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -394,187 +430,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,11 +626,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,6 +637,56 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -624,36 +708,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -667,24 +721,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -693,10 +729,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,34 +741,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -741,97 +780,94 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1216,7 +1252,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
+      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1571,7 +1607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1590,199 +1626,247 @@
       <c r="J10" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="L10" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="N10" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="7"/>
       <c r="P10" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>27</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>36</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>45</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>54</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="O14" s="7"/>
       <c r="P14" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>63</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>67</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>67</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>61</v>
+        <v>71</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>73</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>65</v>
+        <v>77</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>65</v>
+        <v>77</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="4:4">

--- a/benchmark/benchmark_journal_performance.xlsx
+++ b/benchmark/benchmark_journal_performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="18990" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="测试结果" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="90">
   <si>
     <t>1c1g</t>
   </si>
@@ -82,9 +82,15 @@
     <t>11.66</t>
   </si>
   <si>
+    <t>151.53</t>
+  </si>
+  <si>
     <t>105.26</t>
   </si>
   <si>
+    <t>181.722</t>
+  </si>
+  <si>
     <t>122.55</t>
   </si>
   <si>
@@ -109,9 +115,15 @@
     <t>11.76</t>
   </si>
   <si>
+    <t>159.255</t>
+  </si>
+  <si>
     <t>105.6</t>
   </si>
   <si>
+    <t>182.74</t>
+  </si>
+  <si>
     <t>122.61</t>
   </si>
   <si>
@@ -136,9 +148,15 @@
     <t>1.3</t>
   </si>
   <si>
+    <t>17.648</t>
+  </si>
+  <si>
     <t>9.13</t>
   </si>
   <si>
+    <t>19.224</t>
+  </si>
+  <si>
     <t>10.22</t>
   </si>
   <si>
@@ -163,9 +181,15 @@
     <t>2.66</t>
   </si>
   <si>
+    <t>18.74</t>
+  </si>
+  <si>
     <t>9.12</t>
   </si>
   <si>
+    <t>19.342</t>
+  </si>
+  <si>
     <t>10.23</t>
   </si>
   <si>
@@ -190,9 +214,15 @@
     <t>16min26s</t>
   </si>
   <si>
+    <t>51s</t>
+  </si>
+  <si>
     <t>73s</t>
   </si>
   <si>
+    <t>46s</t>
+  </si>
+  <si>
     <t>65s</t>
   </si>
   <si>
@@ -223,7 +253,13 @@
     <t>mrbench_重复执行50个小任务，平均用时(s)</t>
   </si>
   <si>
+    <t>40.1s</t>
+  </si>
+  <si>
     <t>49.7s</t>
+  </si>
+  <si>
+    <t>38.6s</t>
   </si>
   <si>
     <t>48.4s</t>
@@ -255,10 +291,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -278,14 +314,75 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,73 +419,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -405,6 +435,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -412,14 +456,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -430,187 +466,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,63 +657,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -707,6 +686,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -721,6 +709,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -729,10 +765,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -741,133 +777,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1252,7 +1288,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1617,27 +1653,33 @@
       <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="E10" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F10" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O10" s="7"/>
       <c r="P10" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1645,31 +1687,37 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1677,33 +1725,38 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="H12" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1711,32 +1764,38 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1744,32 +1803,38 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>57</v>
+        <v>65</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>58</v>
+        <v>67</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="O14" s="7"/>
       <c r="P14" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1777,32 +1842,32 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1810,31 +1875,37 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>66</v>
+        <v>76</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>69</v>
+        <v>80</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1842,31 +1913,31 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="N17" s="7" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="4:4">

--- a/benchmark/benchmark_journal_performance.xlsx
+++ b/benchmark/benchmark_journal_performance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="103">
   <si>
     <t>1c1g</t>
   </si>
@@ -100,9 +100,15 @@
     <t>16.68</t>
   </si>
   <si>
+    <t>440.324</t>
+  </si>
+  <si>
     <t>272.48</t>
   </si>
   <si>
+    <t>435.454</t>
+  </si>
+  <si>
     <t>315.56</t>
   </si>
   <si>
@@ -133,9 +139,15 @@
     <t>17.63</t>
   </si>
   <si>
+    <t>463.352</t>
+  </si>
+  <si>
     <t>273.07</t>
   </si>
   <si>
+    <t>443.554</t>
+  </si>
+  <si>
     <t>316.37</t>
   </si>
   <si>
@@ -166,9 +178,15 @@
     <t>4.65</t>
   </si>
   <si>
+    <t>46.81</t>
+  </si>
+  <si>
     <t>16.43</t>
   </si>
   <si>
+    <t>45.476</t>
+  </si>
+  <si>
     <t>18.23</t>
   </si>
   <si>
@@ -199,9 +217,15 @@
     <t>5.94</t>
   </si>
   <si>
+    <t>47.16</t>
+  </si>
+  <si>
     <t>16.45</t>
   </si>
   <si>
+    <t>45.844</t>
+  </si>
+  <si>
     <t>18.43</t>
   </si>
   <si>
@@ -232,9 +256,15 @@
     <t>2min26s</t>
   </si>
   <si>
+    <t>41s</t>
+  </si>
+  <si>
     <t>55s</t>
   </si>
   <si>
+    <t>38s</t>
+  </si>
+  <si>
     <t>43s</t>
   </si>
   <si>
@@ -250,6 +280,9 @@
     <t>输出较多，具体查看数据记录</t>
   </si>
   <si>
+    <t>请看日志</t>
+  </si>
+  <si>
     <t>mrbench_重复执行50个小任务，平均用时(s)</t>
   </si>
   <si>
@@ -271,7 +304,13 @@
     <t>162s</t>
   </si>
   <si>
+    <t>29s</t>
+  </si>
+  <si>
     <t>35s</t>
+  </si>
+  <si>
+    <t>28s</t>
   </si>
   <si>
     <t>34s</t>
@@ -293,8 +332,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -314,7 +353,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,22 +361,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,26 +382,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -388,6 +425,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -419,6 +457,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -436,24 +482,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -466,187 +505,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,6 +699,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -667,6 +745,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,23 +776,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,39 +796,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -765,10 +804,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -777,133 +816,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1285,10 +1324,10 @@
   <sheetPr/>
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1671,15 +1710,20 @@
       <c r="L10" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="M10" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="N10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="O10" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="P10" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1687,37 +1731,43 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1725,38 +1775,44 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1764,38 +1820,43 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O13" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="P13" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1803,38 +1864,43 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>71</v>
+        <v>79</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="O14" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="P14" s="3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1842,32 +1908,35 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>76</v>
+        <v>86</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1875,37 +1944,43 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>84</v>
+        <v>95</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>85</v>
+        <v>97</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1913,31 +1988,37 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>76</v>
+        <v>86</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>88</v>
+        <v>101</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="4:4">

--- a/benchmark/benchmark_journal_performance.xlsx
+++ b/benchmark/benchmark_journal_performance.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="18990" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="测试结果" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="103">
   <si>
     <t>1c1g</t>
   </si>
@@ -328,14 +328,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,345 +346,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -698,251 +368,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -975,57 +403,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1316,21 +697,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.75" customWidth="1"/>
     <col min="2" max="2" width="14.125" style="3" customWidth="1"/>
@@ -1349,7 +729,7 @@
     <col min="15" max="19" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:19">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="4"/>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -1401,7 +781,7 @@
       </c>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:19">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1458,7 +838,7 @@
       </c>
       <c r="S2" s="6"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1468,9 +848,15 @@
       <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1480,9 +866,15 @@
       <c r="L3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="M3" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="N3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="O3" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="P3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1490,7 +882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1500,9 +892,15 @@
       <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1512,9 +910,15 @@
       <c r="L4" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="M4" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="N4" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="O4" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="P4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1522,7 +926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1532,9 +936,15 @@
       <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1544,9 +954,15 @@
       <c r="L5" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="M5" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="N5" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="O5" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="P5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1554,7 +970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1564,9 +980,15 @@
       <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1576,9 +998,15 @@
       <c r="L6" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="M6" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="N6" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="O6" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="P6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1586,7 +1014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1596,9 +1024,15 @@
       <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="G7" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1608,9 +1042,15 @@
       <c r="L7" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="M7" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="N7" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="O7" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="P7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1618,7 +1058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1628,9 +1068,15 @@
       <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F8" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="G8" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1640,9 +1086,15 @@
       <c r="L8" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="M8" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="N8" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="O8" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="P8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1650,7 +1102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1660,9 +1112,15 @@
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="G9" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1672,9 +1130,15 @@
       <c r="L9" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="M9" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="N9" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="O9" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="P9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1682,7 +1146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1726,7 +1190,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1770,7 +1234,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1815,7 +1279,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1859,7 +1323,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1903,7 +1367,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1939,7 +1403,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1983,7 +1447,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2021,19 +1485,19 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D20" s="7"/>
     </row>
-    <row r="27" spans="3:4">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="4:4">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D28" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/benchmark/benchmark_journal_performance.xlsx
+++ b/benchmark/benchmark_journal_performance.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="11595"/>
+    <workbookView windowWidth="18990" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="测试结果" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="108">
   <si>
     <t>1c1g</t>
   </si>
@@ -112,6 +112,9 @@
     <t>315.56</t>
   </si>
   <si>
+    <t>359.29</t>
+  </si>
+  <si>
     <t>326.02</t>
   </si>
   <si>
@@ -151,6 +154,9 @@
     <t>316.37</t>
   </si>
   <si>
+    <t>362.503</t>
+  </si>
+  <si>
     <t>329.69</t>
   </si>
   <si>
@@ -190,6 +196,9 @@
     <t>18.23</t>
   </si>
   <si>
+    <t>48.518</t>
+  </si>
+  <si>
     <t>19.01</t>
   </si>
   <si>
@@ -229,6 +238,9 @@
     <t>18.43</t>
   </si>
   <si>
+    <t>50.098</t>
+  </si>
+  <si>
     <t>19.14</t>
   </si>
   <si>
@@ -266,6 +278,9 @@
   </si>
   <si>
     <t>43s</t>
+  </si>
+  <si>
+    <t>39s</t>
   </si>
   <si>
     <t>44s</t>
@@ -328,8 +343,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,21 +367,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -368,9 +713,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -403,10 +990,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -697,20 +1331,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E9"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.75" customWidth="1"/>
     <col min="2" max="2" width="14.125" style="3" customWidth="1"/>
@@ -729,7 +1364,7 @@
     <col min="15" max="19" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="2:19">
       <c r="B1" s="4"/>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -781,7 +1416,7 @@
       </c>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="2" customFormat="1" spans="1:19">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -838,7 +1473,7 @@
       </c>
       <c r="S2" s="6"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -848,15 +1483,9 @@
       <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
@@ -866,15 +1495,9 @@
       <c r="L3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="N3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="P3" s="3" t="s">
         <v>13</v>
       </c>
@@ -882,7 +1505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>2</v>
       </c>
@@ -892,15 +1515,9 @@
       <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="H4" s="3" t="s">
         <v>13</v>
       </c>
@@ -910,15 +1527,9 @@
       <c r="L4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="N4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="P4" s="3" t="s">
         <v>13</v>
       </c>
@@ -926,7 +1537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>3</v>
       </c>
@@ -936,15 +1547,9 @@
       <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="H5" s="3" t="s">
         <v>13</v>
       </c>
@@ -954,15 +1559,9 @@
       <c r="L5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="N5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="P5" s="3" t="s">
         <v>13</v>
       </c>
@@ -970,7 +1569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>4</v>
       </c>
@@ -980,15 +1579,9 @@
       <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
@@ -998,15 +1591,9 @@
       <c r="L6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="N6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="P6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1014,7 +1601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1024,15 +1611,9 @@
       <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1042,15 +1623,9 @@
       <c r="L7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="N7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="P7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1058,7 +1633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1068,15 +1643,9 @@
       <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1086,15 +1655,9 @@
       <c r="L8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1102,7 +1665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1112,15 +1675,9 @@
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1130,15 +1687,9 @@
       <c r="L9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1146,7 +1697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1186,318 +1737,339 @@
       <c r="P10" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="Q10" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="R10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:4">
       <c r="D20" s="7"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:4">
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:4">
       <c r="D28" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/benchmark/benchmark_journal_performance.xlsx
+++ b/benchmark/benchmark_journal_performance.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\hsdocker\hsdocker\benchmark\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="18990" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="测试结果" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="108">
   <si>
     <t>1c1g</t>
   </si>
@@ -343,14 +348,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,345 +366,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -713,251 +388,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -990,61 +423,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1331,21 +720,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="Q17" sqref="Q17"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.75" customWidth="1"/>
     <col min="2" max="2" width="14.125" style="3" customWidth="1"/>
@@ -1364,7 +752,7 @@
     <col min="15" max="19" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:19">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="4"/>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -1416,7 +804,7 @@
       </c>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:19">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1473,7 +861,7 @@
       </c>
       <c r="S2" s="6"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1483,9 +871,15 @@
       <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1495,6 +889,9 @@
       <c r="L3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="M3" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="N3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1505,7 +902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1515,9 +912,15 @@
       <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1527,6 +930,9 @@
       <c r="L4" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="M4" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="N4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1537,7 +943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1547,9 +953,15 @@
       <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1559,6 +971,9 @@
       <c r="L5" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="M5" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="N5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1569,7 +984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1579,9 +994,15 @@
       <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1591,6 +1012,9 @@
       <c r="L6" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="M6" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="N6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1601,7 +1025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1611,9 +1035,15 @@
       <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="G7" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1623,6 +1053,9 @@
       <c r="L7" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="M7" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="N7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1633,7 +1066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1643,9 +1076,15 @@
       <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F8" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="G8" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1655,6 +1094,9 @@
       <c r="L8" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="M8" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="N8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1665,7 +1107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1675,9 +1117,15 @@
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="G9" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1687,6 +1135,9 @@
       <c r="L9" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="M9" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="N9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1697,7 +1148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1744,7 +1195,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1791,7 +1242,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1839,7 +1290,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1886,7 +1337,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1933,7 +1384,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1969,7 +1420,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2016,7 +1467,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2057,19 +1508,19 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D20" s="7"/>
     </row>
-    <row r="27" spans="3:4">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="4:4">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D28" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/benchmark/benchmark_journal_performance.xlsx
+++ b/benchmark/benchmark_journal_performance.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\hsdocker\hsdocker\benchmark\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="11595"/>
+    <workbookView windowWidth="18990" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="测试结果" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="113">
   <si>
     <t>1c1g</t>
   </si>
@@ -99,6 +94,9 @@
     <t>122.55</t>
   </si>
   <si>
+    <t>194.596</t>
+  </si>
+  <si>
     <t>135.71</t>
   </si>
   <si>
@@ -141,6 +139,9 @@
     <t>122.61</t>
   </si>
   <si>
+    <t>208.222</t>
+  </si>
+  <si>
     <t>137.85</t>
   </si>
   <si>
@@ -183,6 +184,9 @@
     <t>10.22</t>
   </si>
   <si>
+    <t>20.472</t>
+  </si>
+  <si>
     <t>12.41</t>
   </si>
   <si>
@@ -225,6 +229,9 @@
     <t>10.23</t>
   </si>
   <si>
+    <t>21.036</t>
+  </si>
+  <si>
     <t>12.42</t>
   </si>
   <si>
@@ -316,6 +323,9 @@
   </si>
   <si>
     <t>48.4s</t>
+  </si>
+  <si>
+    <t>40.3s</t>
   </si>
   <si>
     <t>48.2s</t>
@@ -348,8 +358,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,21 +382,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -388,9 +728,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -423,17 +1005,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -720,20 +1346,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E9"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.75" customWidth="1"/>
     <col min="2" max="2" width="14.125" style="3" customWidth="1"/>
@@ -752,7 +1379,7 @@
     <col min="15" max="19" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="2:19">
       <c r="B1" s="4"/>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -804,7 +1431,7 @@
       </c>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="2" customFormat="1" spans="1:19">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -861,7 +1488,7 @@
       </c>
       <c r="S2" s="6"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -871,15 +1498,9 @@
       <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
@@ -889,9 +1510,6 @@
       <c r="L3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="N3" s="3" t="s">
         <v>13</v>
       </c>
@@ -902,7 +1520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>2</v>
       </c>
@@ -912,15 +1530,9 @@
       <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="H4" s="3" t="s">
         <v>13</v>
       </c>
@@ -930,9 +1542,6 @@
       <c r="L4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="N4" s="3" t="s">
         <v>13</v>
       </c>
@@ -943,7 +1552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>3</v>
       </c>
@@ -953,15 +1562,9 @@
       <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="H5" s="3" t="s">
         <v>13</v>
       </c>
@@ -971,9 +1574,6 @@
       <c r="L5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="N5" s="3" t="s">
         <v>13</v>
       </c>
@@ -984,7 +1584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>4</v>
       </c>
@@ -994,15 +1594,9 @@
       <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1012,9 +1606,6 @@
       <c r="L6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="N6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1025,7 +1616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1035,15 +1626,9 @@
       <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1053,9 +1638,6 @@
       <c r="L7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="N7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1066,7 +1648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1076,15 +1658,9 @@
       <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1094,9 +1670,6 @@
       <c r="L8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1107,7 +1680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1117,15 +1690,9 @@
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1135,9 +1702,6 @@
       <c r="L9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1148,7 +1712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1170,357 +1734,377 @@
       <c r="H10" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="I10" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="J10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="J12" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:4">
       <c r="D20" s="7"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:4">
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:4">
       <c r="D28" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/benchmark/benchmark_journal_performance.xlsx
+++ b/benchmark/benchmark_journal_performance.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="18990" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="测试结果" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="113">
   <si>
     <t>1c1g</t>
   </si>
@@ -358,14 +358,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,345 +376,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -728,251 +398,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1005,57 +433,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1346,21 +727,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K3:K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.75" customWidth="1"/>
     <col min="2" max="2" width="14.125" style="3" customWidth="1"/>
@@ -1379,7 +759,7 @@
     <col min="15" max="19" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:19">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="4"/>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -1431,7 +811,7 @@
       </c>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:19">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1488,7 +868,7 @@
       </c>
       <c r="S2" s="6"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1498,29 +878,47 @@
       <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="J3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="M3" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="N3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="O3" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="P3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="Q3" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="R3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1530,29 +928,47 @@
       <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="I4" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="J4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="M4" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="N4" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="O4" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="P4" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="Q4" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="R4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1562,29 +978,47 @@
       <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="I5" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="J5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="M5" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="N5" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="O5" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="P5" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="Q5" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="R5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1594,29 +1028,47 @@
       <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="I6" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="J6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="M6" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="N6" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="O6" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="P6" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="Q6" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="R6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1626,29 +1078,47 @@
       <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="G7" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="I7" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="J7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="M7" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="N7" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="O7" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="P7" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="Q7" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="R7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1658,29 +1128,47 @@
       <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F8" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="G8" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="I8" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="J8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="M8" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="N8" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="O8" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="P8" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="Q8" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="R8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1690,29 +1178,47 @@
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="G9" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="I9" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="J9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="M9" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="N9" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="O9" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="P9" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="Q9" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="R9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1762,7 +1268,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1812,7 +1318,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1862,7 +1368,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1912,7 +1418,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1962,7 +1468,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1998,7 +1504,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2048,7 +1554,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2092,19 +1598,19 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D20" s="7"/>
     </row>
-    <row r="27" spans="3:4">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="4:4">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D28" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/benchmark/benchmark_journal_performance.xlsx
+++ b/benchmark/benchmark_journal_performance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="104">
   <si>
     <t>1c1g</t>
   </si>
@@ -259,45 +259,6 @@
     <t>TeraSort计算性能测试_100mb 文件排序耗时(s)</t>
   </si>
   <si>
-    <t>16min26s</t>
-  </si>
-  <si>
-    <t>51s</t>
-  </si>
-  <si>
-    <t>73s</t>
-  </si>
-  <si>
-    <t>46s</t>
-  </si>
-  <si>
-    <t>65s</t>
-  </si>
-  <si>
-    <t>60s</t>
-  </si>
-  <si>
-    <t>2min26s</t>
-  </si>
-  <si>
-    <t>41s</t>
-  </si>
-  <si>
-    <t>55s</t>
-  </si>
-  <si>
-    <t>38s</t>
-  </si>
-  <si>
-    <t>43s</t>
-  </si>
-  <si>
-    <t>39s</t>
-  </si>
-  <si>
-    <t>44s</t>
-  </si>
-  <si>
     <t>nnbench</t>
   </si>
   <si>
@@ -353,6 +314,22 @@
   </si>
   <si>
     <t>输出较多</t>
+  </si>
+  <si>
+    <t>986</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>146</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -737,13 +714,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K3:K9"/>
+      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="41.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3" customWidth="1"/>
     <col min="4" max="4" width="9" style="3"/>
     <col min="5" max="5" width="11.625" style="3" customWidth="1"/>
@@ -1225,6 +1202,9 @@
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="C10" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
@@ -1245,6 +1225,9 @@
       </c>
       <c r="J10" s="3" t="s">
         <v>27</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>28</v>
@@ -1275,6 +1258,9 @@
       <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="C11" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D11" s="3" t="s">
         <v>36</v>
       </c>
@@ -1295,6 +1281,9 @@
       </c>
       <c r="J11" s="3" t="s">
         <v>42</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>43</v>
@@ -1325,6 +1314,9 @@
       <c r="B12" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="C12" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D12" s="7" t="s">
         <v>51</v>
       </c>
@@ -1345,6 +1337,9 @@
       </c>
       <c r="J12" s="8" t="s">
         <v>57</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>58</v>
@@ -1375,6 +1370,9 @@
       <c r="B13" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="C13" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="D13" s="3" t="s">
         <v>66</v>
       </c>
@@ -1395,6 +1393,9 @@
       </c>
       <c r="J13" s="3" t="s">
         <v>72</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>73</v>
@@ -1425,47 +1426,53 @@
       <c r="B14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>86</v>
+      <c r="C14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>51</v>
+      </c>
+      <c r="F14" s="3">
+        <v>73</v>
+      </c>
+      <c r="G14" s="3">
+        <v>46</v>
+      </c>
+      <c r="H14" s="3">
+        <v>65</v>
+      </c>
+      <c r="I14" s="3">
+        <v>46</v>
+      </c>
+      <c r="J14" s="3">
+        <v>60</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
+      </c>
+      <c r="M14" s="3">
+        <v>41</v>
+      </c>
+      <c r="N14" s="7">
+        <v>55</v>
+      </c>
+      <c r="O14" s="7">
+        <v>38</v>
+      </c>
+      <c r="P14" s="3">
+        <v>43</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>39</v>
+      </c>
+      <c r="R14" s="3">
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.15">
@@ -1473,35 +1480,35 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.15">
@@ -1509,49 +1516,49 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="P16" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.15">
@@ -1559,43 +1566,43 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.15">

--- a/benchmark/benchmark_journal_performance.xlsx
+++ b/benchmark/benchmark_journal_performance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="107">
   <si>
     <t>1c1g</t>
   </si>
@@ -329,6 +329,18 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScalaSparkWordcount_Throughput(bytes/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScalaSparkWordcount_Duration(bytes/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScalaSparkWordcount_Throughput/node</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -714,7 +726,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1605,7 +1617,29 @@
         <v>99</v>
       </c>
     </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="D20" s="7"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.15">

--- a/benchmark/benchmark_journal_performance.xlsx
+++ b/benchmark/benchmark_journal_performance.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="11595"/>
+    <workbookView windowWidth="18990" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="测试结果" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="122">
   <si>
     <t>1c1g</t>
   </si>
@@ -79,6 +79,9 @@
     <t>TestDFSIO读_Throughput(mb/sec)</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>11.66</t>
   </si>
   <si>
@@ -259,6 +262,12 @@
     <t>TeraSort计算性能测试_100mb 文件排序耗时(s)</t>
   </si>
   <si>
+    <t>986</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
     <t>nnbench</t>
   </si>
   <si>
@@ -316,39 +325,74 @@
     <t>输出较多</t>
   </si>
   <si>
-    <t>986</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>146</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>ScalaSparkWordcount_Duration(bytes/s)</t>
+  </si>
+  <si>
+    <t>66.167</t>
+  </si>
+  <si>
+    <t>60.8955</t>
+  </si>
+  <si>
+    <t>64.505</t>
+  </si>
+  <si>
+    <t>57.0055</t>
+  </si>
+  <si>
+    <t>58.6025</t>
+  </si>
+  <si>
+    <t>56.7255</t>
+  </si>
+  <si>
+    <t>64.2255</t>
+  </si>
+  <si>
+    <t>60.33</t>
   </si>
   <si>
     <t>ScalaSparkWordcount_Throughput(bytes/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScalaSparkWordcount_Duration(bytes/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>568.5</t>
+  </si>
+  <si>
+    <t>641</t>
+  </si>
+  <si>
+    <t>617.5</t>
+  </si>
+  <si>
+    <t>647</t>
+  </si>
+  <si>
+    <t>569.5</t>
+  </si>
+  <si>
+    <t>610</t>
   </si>
   <si>
     <t>ScalaSparkWordcount_Throughput/node</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,21 +409,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -387,9 +755,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -422,10 +1032,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -716,20 +1373,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.75" customWidth="1"/>
     <col min="2" max="2" width="41.75" style="3" customWidth="1"/>
@@ -748,7 +1406,7 @@
     <col min="15" max="19" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="2:19">
       <c r="B1" s="4"/>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -800,7 +1458,7 @@
       </c>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="2" customFormat="1" spans="1:19">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -857,7 +1515,7 @@
       </c>
       <c r="S2" s="6"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -907,7 +1565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>2</v>
       </c>
@@ -957,7 +1615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1007,7 +1665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1057,7 +1715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1107,7 +1765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1157,7 +1815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1207,7 +1865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1215,234 +1873,234 @@
         <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="L10" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="E14" s="3">
         <v>51</v>
@@ -1463,10 +2121,10 @@
         <v>60</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="M14" s="3">
         <v>41</v>
@@ -1487,171 +2145,242 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>105</v>
       </c>
+      <c r="H18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>104</v>
+        <v>112</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:4">
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:4">
       <c r="D28" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/benchmark/benchmark_journal_performance.xlsx
+++ b/benchmark/benchmark_journal_performance.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="18990" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="测试结果" sheetId="1" r:id="rId1"/>
@@ -385,14 +385,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,345 +403,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -755,251 +425,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1032,57 +460,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1373,21 +754,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="R20" sqref="R20"/>
+      <selection pane="bottomLeft" activeCell="R19" sqref="R19:R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.75" customWidth="1"/>
     <col min="2" max="2" width="41.75" style="3" customWidth="1"/>
@@ -1406,7 +786,7 @@
     <col min="15" max="19" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:19">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="4"/>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -1458,7 +838,7 @@
       </c>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:19">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1515,7 +895,7 @@
       </c>
       <c r="S2" s="6"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1565,7 +945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1615,7 +995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1665,7 +1045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1715,7 +1095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1765,7 +1145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1815,7 +1195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1865,7 +1245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1921,7 +1301,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1977,7 +1357,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2033,7 +1413,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2089,7 +1469,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2145,7 +1525,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2181,7 +1561,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2231,7 +1611,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2275,7 +1655,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2307,7 +1687,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2339,7 +1719,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2371,16 +1751,16 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="3:4">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="4:4">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D28" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/benchmark/benchmark_journal_performance.xlsx
+++ b/benchmark/benchmark_journal_performance.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="11595"/>
+    <workbookView windowWidth="18990" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="测试结果" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="138">
   <si>
     <t>1c1g</t>
   </si>
@@ -328,52 +328,100 @@
     <t>ScalaSparkWordcount_Duration(bytes/s)</t>
   </si>
   <si>
+    <t>85.746</t>
+  </si>
+  <si>
     <t>66.167</t>
   </si>
   <si>
+    <t>47.465</t>
+  </si>
+  <si>
     <t>60.8955</t>
   </si>
   <si>
+    <t>49.5435</t>
+  </si>
+  <si>
     <t>64.505</t>
   </si>
   <si>
+    <t>49.555</t>
+  </si>
+  <si>
     <t>57.0055</t>
   </si>
   <si>
+    <t>39.5965</t>
+  </si>
+  <si>
     <t>58.6025</t>
   </si>
   <si>
+    <t>48.477</t>
+  </si>
+  <si>
     <t>56.7255</t>
   </si>
   <si>
+    <t>41.129</t>
+  </si>
+  <si>
     <t>64.2255</t>
   </si>
   <si>
+    <t>45.9425</t>
+  </si>
+  <si>
     <t>60.33</t>
   </si>
   <si>
     <t>ScalaSparkWordcount_Throughput(bytes/s)</t>
   </si>
   <si>
+    <t>448.5</t>
+  </si>
+  <si>
     <t>555</t>
   </si>
   <si>
+    <t>808.5</t>
+  </si>
+  <si>
     <t>600</t>
   </si>
   <si>
+    <t>771</t>
+  </si>
+  <si>
     <t>568.5</t>
   </si>
   <si>
+    <t>770.5</t>
+  </si>
+  <si>
     <t>641</t>
   </si>
   <si>
+    <t>1006</t>
+  </si>
+  <si>
     <t>617.5</t>
   </si>
   <si>
+    <t>797</t>
+  </si>
+  <si>
     <t>647</t>
   </si>
   <si>
+    <t>928.5</t>
+  </si>
+  <si>
     <t>569.5</t>
+  </si>
+  <si>
+    <t>832</t>
   </si>
   <si>
     <t>610</t>
@@ -385,8 +433,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,21 +457,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -425,9 +803,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -460,10 +1080,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -754,20 +1421,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R19" sqref="R19:R20"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.75" customWidth="1"/>
     <col min="2" max="2" width="41.75" style="3" customWidth="1"/>
@@ -786,7 +1454,7 @@
     <col min="15" max="19" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="2:19">
       <c r="B1" s="4"/>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -838,7 +1506,7 @@
       </c>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="2" customFormat="1" spans="1:19">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -895,7 +1563,7 @@
       </c>
       <c r="S2" s="6"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -945,7 +1613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>2</v>
       </c>
@@ -995,7 +1663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1045,7 +1713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1095,7 +1763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1145,7 +1813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1195,7 +1863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1245,7 +1913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1301,7 +1969,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1357,7 +2025,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1413,7 +2081,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1469,7 +2137,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1525,7 +2193,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1561,7 +2229,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1611,7 +2279,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1655,112 +2323,184 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="C18" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="D18" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>110</v>
+        <v>117</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>112</v>
+        <v>120</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>113</v>
+        <v>122</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>114</v>
+        <v>124</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>115</v>
+        <v>126</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>116</v>
+        <v>128</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>117</v>
+        <v>130</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>118</v>
+        <v>132</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>119</v>
+        <v>134</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>121</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>114</v>
+        <v>124</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>115</v>
+        <v>126</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>116</v>
+        <v>128</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>117</v>
+        <v>130</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>118</v>
+        <v>132</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>119</v>
+        <v>134</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:4">
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:4">
       <c r="D28" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>